--- a/dashboard_must_webiste/arquivos/anotacoes_extraidas/saida_anotacoes_CUST-2002-114-64_ CPFL_Paulista.xlsx
+++ b/dashboard_must_webiste/arquivos/anotacoes_extraidas/saida_anotacoes_CUST-2002-114-64_ CPFL_Paulista.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="96">
   <si>
     <t>Num_Tabela</t>
   </si>
@@ -34,33 +34,6 @@
     <t>01</t>
   </si>
   <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>SPAMP -138   AMPARO - 138</t>
   </si>
   <si>
@@ -157,21 +130,6 @@
     <t>SPVWG -138-A VW SAO CARLOS - 138</t>
   </si>
   <si>
-    <t>SPTNB2138 -A TANABI</t>
-  </si>
-  <si>
-    <t>SPVAL2138 -A VALPARAISO</t>
-  </si>
-  <si>
-    <t>SPSCA5138 -A SAO CARLOS</t>
-  </si>
-  <si>
-    <t>SPPEN -138   PENAPOLIS - 138</t>
-  </si>
-  <si>
-    <t>SPBIO -138-A BIOPAV - 138</t>
-  </si>
-  <si>
     <t>kV (A)</t>
   </si>
   <si>
@@ -190,9 +148,6 @@
     <t>138</t>
   </si>
   <si>
-    <t>5138kVA</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -347,84 +302,6 @@
   </si>
   <si>
     <t>O atendimento aos valores de MUST solicitados neste ponto, nos anos de 2025 a 2028, nos horários de ponta e fora de ponta, fi ca condiciona do a um fator de potência de 0,95, desconsiderando a parcela de confiabilidade declarada pela Distribuidora na região, devido à violação da capacidade de carreg amento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2. Cabe ressaltar que o  atendimento a este ponto de contratação está condicionado à não violação da capacidade de carregamento de longa duração da LT  138 kV Ribeirão Preto – Porto Ferreira C1/C2. A solução para esse problema é a obra de reconstrução/ recondutoramento da LT 138 k V Porto Ferreira – Ribeirão Preto C1/C2, 82 km, permitindo a elevação da capacidade para 206/242 MVA e a substituição dos equipamentos terminais das SEs Ribeirão Preto e Porto Ferreira, autorizad as à CTEEP através da ReA ANEEL nº 12.491/2022, com prazo pre visto para 22 de agosto de 2026 e prevista atualmente para 30 de julho de 2027.</t>
-  </si>
-  <si>
-    <t>O atendimento aos valores de MUST solicitados neste ponto, no período de 2025 a 2028, nos horários de ponta e fora de ponta, fica condicionado à manutenção de fator de potência mínimo de 0,95 e à conclusão das obras abaixo relacionadas: a) A instalaç ão do segundo banco de transformadores na SE Água Vermelha 440/138 kV de 300 MVA, autorizada à CTEEP através da ReA ANEEL nº 9.260/2020, com prazo contratual previsto para junho de 2023 e prevista atualmente pela Transmissora para novembro de 2024. b) A co nclusão da reconstrução / recondutoramento da LT 138 kV Jales – Boa Hora C1/C2 e obras associadas, autorizada à CTEEP através da ReA ANEEL nº 11.536/2022, prevista atualmente pela Transmiss ora para agosto de 2026. c) Recapacitação da LT 138 kV Jales – Votu poranga II, no trecho entre a SE Jales e a derivação Fernandópolis, 31,6 km, ampliando a capacidade de 80/108 MVA para 139/163 MVA. Adequação dos equipamentos terminais para a nova potência da LT. Substituição de 01 cabo para -raios convencional por cabo OP GW em toda a extensão da LT, entre as SEs Jales e Votuporanga (aproximadamente 74 km). Obras autorizadas à CTEEP através do Despacho ANEEL nº 1.966/2023, com previ são atual pela Transmissora para junho de 2026.</t>
-  </si>
-  <si>
-    <t>O atendimento aos valores de MUST solicitados neste ponto, nos anos de 2025 a 2027, nos horários de ponta e fora de ponta, fica condicionado a um fator de potência de 0,95, desconsiderando a parcela de confiabilidade declarada pela Distribuidora nesse ponto de contratação. Nos períodos de ponta e fora de ponta, entressafra da cana -de-açúcar, principalmente em condições de despachos reduzidos nas usinas do Tietê, são previstas violações da capacidade de carregamento LT 138 kV São José do Rio P reto – Catanduva C1/C2, na LT 138 kV São José do Rio Preto – Mirassol II C1/C2 e subtensão, considerando a simultaneidade de valore s solicitados para a região. Cabe mencionar que para ser viável o atendimento aos montantes solicitados pela distribuidora nesse ponto de contratação sem limitação e ressalva é imprescindível a entrada em operação das  obras abaixo relacionadas: a) reconstr ução/recondutoramento da LT 138 kV São José do Rio Preto – Catanduva autorizada à CTEEP através da ReA Nª 12.639/2022, com prazo contratual previsto para jun/2025 e prevista atualmente  pela Transmissora</t>
-  </si>
-  <si>
-    <t>O atendimento aos valores de MUST está condicionado a conclusão da obra de seccionamento da LT 440 kV Água Azul – Bom Jardim na SE Fernão Dias 440 kV, atualmente prevista para junho/2026, a um fator de potência mínimo de 0,95 indutivo e a não violação da capacidade de carre gamento do único transformador 500/345 kV da SE Poços de Caldas.</t>
-  </si>
-  <si>
-    <t>Os valores de MUST solicitados neste  ponto, nos horários de ponta e fora de ponta, no período de 01 de janeiro a 28 de fevereiro de 2026, devem ficar limitados a 37,730 MW e 41,715</t>
-  </si>
-  <si>
-    <t>Os valores de MUST solicitados neste ponto, nos horários de ponta e fora de ponta, em 2026, no período avaliado, devem ficar condicionados a um fator de potência mínimo de 0,95, devido à violação da capacidade de carregamento de longa duração na LT 1 38 kV Ribeirão Preto – Porto Ferreira C1/C2. Cabe ressaltar que o atendimento a este ponto de contratação está condicionado a não violação da capacidade de carregamento de longa duração da LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2. A solução para ess e problema é a obra de reconstrução/ recondutoramento da LT 138 kV Porto Ferreira – Ribeirão Preto C1/C2, 82 km, permitindo a elevação da capacidade para 206/242 MVA e a substituição dos equipamentos terminais  das SEs Ribeirão Preto e Porto Ferreira, autor izadas à CTEEP através da ReA ANEEL nº 12.491/2022, com prazo previsto para 22 de agosto de 2026 e prevista atualmente para 3 0 de julho de 2027.</t>
-  </si>
-  <si>
-    <t>Os valores de MUST solicitados neste ponto, nos horários de ponta e fora de ponta, no ano de 2025, devem ficar limitados a 37 ,730 MW e 41,715 MW, respec tivamente, condicionados a um fator de potência mínimo de 0,95, devido à violação da capacidade de carregamento de longa duração na LT 138 kV Ribeirão  Preto – Porto Ferreira C1/C2. Cabe ressaltar que o atendimento a este ponto de contratação está condicion ado a não violação da capacidade de carregamento de longa duração da LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2. A solução para esse problema é a obra de reconstrução/ recondutoramento da LT 138 kV Porto Ferreira – Ribeirão Preto C1/C2, 82 km, permiti ndo a elevação da capacidade para 206/242 MVA e a substituição dos equipamentos terminais das SEs Ribeirão Preto e Porto Ferreira, autorizadas à CTEEP através da ReA ANEEL nº 12.491/2022, com prazo previsto para 22 de agosto de 2026 e prevista atualmente p ara 30 de julho de 2027.</t>
-  </si>
-  <si>
-    <t>Os valores de MUST solicitados neste ponto, nos horários de ponta e fora de ponta, no período de 2027 a 2028, ficam condicionados a um fator de potência mínimo de 0,95, devido à violação da capacidade de carregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2. Cabe ressaltar que o atendimento a est e ponto de contratação está condicionado a não violação da capacidade de carregamento de longa duração da LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2. A solução para esse problema é a obra de reconstrução/ recondutoramento da LT 138 kV Porto Ferreira – Ribeirão Preto C1/C2, 82 km, permitindo a elevação da capacidade para 206/242 MVA e a substituição dos equipamentos terminais  das SEs Ribeirão Preto e Porto Ferreira, autorizadas à CTEEP através da ReA ANEEL nº 12.491/2022, com prazo previsto para 22 de a gosto de 2026 e prevista atualmente para 30 de julho de 2027.</t>
-  </si>
-  <si>
-    <t>Os valores de MUST solicitados neste ponto, nos horários de ponta e fora de ponta, nos anos de 2027 a 2028, devem ficar limit ado 3,773 MW e 4,175 MW, respectivamente, condicionados a um fator de potência mínimo de 0,95, devi do à violação da capacidade de carregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2. Cabe ressaltar que o atendimento a este ponto de contratação está condicionado a não violação da capacidade de carregamento de lon ga duração da  LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2. A solução para esse problema é a obra de reconstrução/ recondutoramento da LT 138 kV Porto Ferreira – Ribeirão Preto C1/C2, 82 km, permitindo a elevação da capacidade para 206/242 MVA e a substituição dos e quipamentos terminais das SEs Ribeirão Preto e Porto Ferreira, autorizadas à CTEEP através da ReA ANEEL nº 12.491/2022, com p razo previsto para 22 de agosto de 2026 e prevista atualmente para 30 de julho de 2027.</t>
-  </si>
-  <si>
-    <t>Os valores de MUST solicitados neste ponto, no ano de 2026, no período avaliado, devem ficar limitados a  108,00 MW e 110,00 MW, nos horários de ponta e fora de ponta, respectivamente, condicionados a um fator de potência mínimo de 0,95, desconsiderando as parcelas de confiabilidade declarada s pela Distribuidora na região, devido à violação da capacidade de c arregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2. Cabe ressaltar que o atendimento a este ponto de contratação está condicionado a não violação da capacidade de carregamento de longa duração da LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2. A solução para esse problema é a obra de reconstrução/ recondutoramento da LT 138 kV Porto Ferreira – Ribeirão Preto C1/C2, 82 km, permitindo a elevação da capacidade para 206/242 MVA e a substituição dos equipamentos terminais  das SEs Ri beirão Preto e Porto Ferreira, autorizadas à CTEEP através da ReA ANEEL nº 12.491/2022, com prazo previsto para 22 de agosto de 2026 e previ sta atualmente para 30 de julho de 2027.</t>
-  </si>
-  <si>
-    <t>Os valores de MUST solicitados neste ponto, nos anos de 2025 e 2026, devem ficar limitados a 108,00 MW e 110,00 MW, e nos ano s de 2027 a 2028, devem ficar limitados a 108,00 MW e 117,80 MW, nos horários de ponta e fora de ponta, respectivamente, cond icionados a um fator de potência mínimo de 0,95, desconsiderando as parcelas de confiabilidade declaradas pela Distribuidora na região, devido à violação da capacidade de carregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2. Cab e ressaltar que o atendimento a este ponto de contratação está condicionado a não violação da capacidade de carregamento de longa duração da LT 138 kV Ribeir ão Preto – Porto Ferreira C1/C2. A solução para esse problema é a obra de reconstrução/ recondutora mento da LT 138 kV Porto Ferreira – Ribeirão Preto C1/C2, 82 km, permitindo a elevação da capacidade para 206/242 MVA e a substituição dos equipamentos terminais das SEs Ribeirão Preto e Porto Ferreira, autorizadas à CTEEP através da ReA ANEEL nº 12.491/20 22, com prazo previsto para 22 de agosto de 2026 e prevista atualmente para 30 de julho de 2027.</t>
-  </si>
-  <si>
-    <t>Os valores de MUST s olicitados neste ponto, nos horários de ponta e fora de ponta, no período de 01 de janeiro a 28 de fevereiro de 2026, devem f icar limitados a 37,730 MW e 41,715 MW, respectivamente, condicionados a um fator de potência mínimo de 0,95, devido à violação da capacidade de carregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2. Cabe ressaltar que o atendimento a este ponto de contratação está condicionado a não violação da capacidade d e carregamento de longa duração da LT 138 kV Ribeir ão Preto – Porto Ferreira C1/C2. A solução para esse problema é a obra de reconstrução/ recondutoramento da LT 138 kV Porto Ferreira – Ribeirão Preto C1/C2, 82 km, permitindo a elevação da capacidade para 206/242 MVA e a substituição dos equipamentos termi nais das SEs Ribeirão Preto e Porto Ferreira, autorizadas à CTEEP através da ReA ANEEL nº 12.491/2022, com prazo previsto para 22 de agosto de 2026 e prevista atualmente para 30 de julho de 2027.</t>
-  </si>
-  <si>
-    <t>Os valores de MUST solicitados neste ponto, nos horários de ponta e fora de ponta, em 2026, no  período avaliado, devem ficar condicionados a um fator de potência mínimo de 0,95, devido à violação da capacidade de carregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2. Cabe ressaltar que o atendimento a este ponto de contra tação está condicionado a não violação da capacidade de carregamento de longa duração da LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2. A solução para esse problema é a obra de reconstrução/ recondutoramento da LT 138 kV Porto Ferreira – Ribeirão Preto C 1/C2, 82 km, permitindo a elevação da capacidade para 206/242 MVA e a substituição dos equipamentos terminais das SEs Ribeirão Preto e Porto Ferreira, autorizadas à CTEEP através da ReA ANEEL nº 12.491/2022, com prazo previsto para 22 de a gosto de 2026 e p revista atualmente para 30 de julho de 2027.</t>
-  </si>
-  <si>
-    <t>Os valores de MUST solicitados neste ponto, nos horários de ponta e fora de ponta, no ano de 2025, devem ficar limitados a 37 ,730 MW e 41,715 MW, respectivamente, condicionados a um fator de potência míni mo de 0,95, devido à violação da capacidade de carregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2. Cabe ressaltar que o atendimento a este ponto de contratação está condicionado a não violação da capacidade de carregamento de longa duração da LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2. A solução para esse problema é a obra de reconstrução/ recondutoramento da LT 138 kV Porto Ferreira – Ribeirão Preto C1/C2, 82 km, permitindo a elevação da capacidade para 206/242 MVA e a substituição dos equipamentos terminais das SEs Ribeirão Preto e Porto Ferreira, autorizadas à CTEEP através da ReA ANEEL nº 12 .491/2022, com prazo previsto para 22 de agosto de 2026 e prevista atualmente para 30 de julho de 2027.</t>
-  </si>
-  <si>
-    <t>Os valores de MUST solicitados neste ponto, nos horários de ponta e fora de ponta, no ano de 2026, devem ficar limitados 3,77 3 MW e 4,175 MW, respectivamente, condicionados a um fator de potência mínimo de 0,95, devido à violação da capacidade de car regamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2. Cabe ressaltar que o atendimento a este ponto de contratação está condicionado a não violação da capacidade de carregamento de longa duração da LT  138 kV Ribeirão Preto – Porto Ferreira C1/C2. Os valores solicitados poderão ser atendidos condicionados a obra de reconstrução/ recondutoramento da LT 138 kV Porto Ferreira – Ribeirão Preto C1/C2, 82 km, permitindo a elevação da capacidade para 206/242 MVA e a substituição dos equipam entos terminais das SEs Ribeirão Preto e Porto Ferreira, autorizadas à CTEEP através da ReA ANEEL nº 12.491/2022, com prazo p revisto para 22 de agosto de 2026 e prevista atualmente para 30 de julho de 2027. Foram mantidos os valores previamente contratados .</t>
-  </si>
-  <si>
-    <t>Os valores de MUST solicitados neste ponto, nos horários de ponta e fora de ponta, nos anos de 2027 a 2028, devem ficar limit ado 3,773 MW e 4,175 MW, respectivamente, condicionados a um fator de potência mínimo de 0,95, devido à violação da capacidad e de carregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2. Cabe ressaltar que o atendimento a este ponto de contratação está condicionado a não violação da capacidade de carregamento de lon ga duração da LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2. Os valores solicitados poderão ser atendidos condicionados a obra de reconstrução/ recondutoramento da LT 138 kV Porto  Ferreira – Ribeirão Preto C1/C2, 82 km, permitindo a elevação da capacidade para 206/242 MVA e a substituição dos  equipamentos terminais das SEs Ribeirão Preto e Porto Ferreira, autorizadas à CTEEP através da ReA ANEEL nº 12.491/2022, com prazo previsto para 22 de agosto de 2026 e prevista atualmente para 30 de julho de 2027. Ficam mantidos os v alores previamente con tratados.</t>
-  </si>
-  <si>
-    <t>Os valores de MUST solicitados neste ponto, nos anos de 2025 e 2026, devem ficar limitados a 108,00 MW e 110,00 MW, e nos ano s de 2027 a 2028, devem ficar limitados a 108,00 MW e 117,80 MW, nos horários de ponta e fora de ponta, respectivam ente, condicionados a um fator de potência mínimo de 0,95, desconsiderando as parcelas de confiabilidade declaradas pela Distribuidora na região, devido à violação da capacidade de carregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2. Cabe ressaltar que o atendimento a este ponto de contratação está condicionado a não violação da capacidade de carregamento de longa duração da LT 138 kV Ribeir ão Preto – Porto Ferreira C1/C2. A solução para esse problema é a obra de reconstrução/ r econdutoramento da LT 138 kV Porto Ferreira – Ribeirão Preto C1/C2, 82 km, permitindo a elevação da capacidade para 206/242 MVA e a substituição dos equipamentos terminais das SEs Ribeirão Preto e Porto Ferreira, autorizadas à CTEEP através da ReA ANEEL nº  12.491/2022, com prazo previsto para 22 de agosto de 2026 e prevista atualmente para 30 de julho de 2027.</t>
-  </si>
-  <si>
-    <t>Os valores de MUST solicitados neste ponto, nos anos de 2025 e 2026, devem ficar limitados a 108,00 MW e 110,00 MW, e nos anos de 2027 a 2028, devem ficar limitados a 115,20 MW e 107,10 MW, nos horários de ponta e fora de ponta, respectivamente, condicionados a um fator de potência mínimo de 0,95, desconside rando as parcelas de confiabilidade declaradas pela Distribuidora na região, devido à violação da capacidade de carregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2. Cabe ressaltar que o atendimento a este ponto de contratação e stá condicionado a não violação da capacidade de carregamento de longa duração da LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2. A solução para esse problema é a obra de reconstrução/ recondutoramento da LT 138 kV Porto Ferreira – Ribeirão Preto C1/C2, 8 2 km, permitindo a elevação da capacidade para 206/242 MVA e a substituição dos equipamentos terminais das SEs Ribeirão Preto e Porto Ferreira, autorizadas à CTEEP através da ReA ANEEL nº 12.491/2022, com prazo previsto para 22 de agosto de 2026 e prevista atualmente para 30 de julho de 2027.</t>
-  </si>
-  <si>
-    <t>Os valores de MUST solicitados neste ponto, nos horários de ponta e fora de ponta, no período de setembro a dezembro do ano d e 2026, devem fic ar limitado 113,900 MW e 106,200 MW, respectivamente, condicionados a um fator de potência mínimo de 0,95, desconsiderando as parcelas de confiabilidade decla radas pela Distribuidora na região, devido à violação da capacidade de carregamento de longa duraç ão na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2. Cabe ressaltar que o atendimento a este ponto de contratação está condicionado a não violação da capacidade de carregamento de longa duração da LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2. A soluçã o para esse problema é a obra de reconstrução/ recondutoramento da LT 138 kV Porto Ferreira – Ribeirão Preto C1/C2, 82 km, permitindo a elevação da capacidade para 206/242 MVA e a substituição dos equipamentos terminais  das SEs Ribeirão Preto e</t>
-  </si>
-  <si>
-    <t>O atendimento aos valores de MUST solicitados neste ponto, no período de 2025 a 2028, nos horários de ponta e fora de ponta, fica condicionado à manutenção de fator de potência mínimo de 0,95 e à conclusão das obras abaixo relacionadas: a) reconstrução/recondutoramento da LT 138 kV São José do Rio Preto – Catanduva autorizada a CTEEP através da REA Nª 12.639/2022, com prazo contratual previsto para jun/2025 e prevista atualmente pela Transmissora para novembro de 2026; b) a substituição de equipamentos terminais na extremidade da SE São José do Rio Preto, autorizada à CTEEP através do Despacho ANEEL nº 616/2023 com previsão de conclusão para março de 20 26.</t>
-  </si>
-  <si>
-    <t>O atendimento aos valores de MUST solicitados neste ponto, no período de 2025 a 2028, nos horários de ponta e fora de ponta, fica condicionado à manutenção de fator de potência mínimo de 0,95 e à conclusão das obras abaixo relacionadas: a) reconstrução/recondutoramento da LT 138 kV São José do Rio Pre to – Catanduva autorizada a CTEEP através da REA Nª 12.639/2022, com prazo contratual previsto para jun/2025 e pr evista atualmente pela Transmissora para novembro de 2026; b) a substituição de equipamentos terminais na extremidade da SE São José do Rio Preto, autorizada à CTEEP através do Despacho ANEEL nº 616/2023 com previsão de conclusão para março de 20 26.</t>
-  </si>
-  <si>
-    <t>O atendimento aos valores de MUST solicitados neste ponto, no p eríodo de 2025 a 2028, nos horários de ponta e fora de ponta, fica condicionado à manutenção de fator de potência mínimo de 0,95 e à conclusão das obras abaixo relacionadas: a) reconstrução/recondutoramento da LT 138 kV São José do Rio Pre to – Catanduva au torizada a CTEEP através da REA Nª 12.639/2022, com prazo contratual previsto para jun/2025 e prevista atualmente pela Transmissora para novembro de 2026; b) a substituição de equipamentos terminais na extremidade da SE São José do Rio Preto, autorizada à CTEEP através do Despacho ANEEL nº 616/2023 com previsão de conclusão para março de 2026.</t>
-  </si>
-  <si>
-    <t>O atendimento aos valores de MUST solicitados neste ponto, no período de 2025 a 2028, nos horários de ponta e fora de ponta, fica condicionado à manutenção de fator de potência mínimo de 0,95 e à conclusão das obras abaixo relacionadas: a) reconstrução/re condutoramento da LT 138 kV São José do Rio Preto – Catanduva autorizada a CTEEP através da REA Nª 12.639/2022, com prazo contratual previsto para jun/2025 e prevista atualmente pela Transmissora para novembro de 2026; b) a substituição de equipamentos ter minais na extremidade da SE São José do Rio Preto, autorizada à CTEEP através do Despacho ANEEL nº 616/2023 com previsão de conclusão para março de 20 26.</t>
-  </si>
-  <si>
-    <t>O atendimento aos valores de MUST solicitados neste ponto fica condicionado a entrada em operação da obra de reconstrução/ re condutoramento da LT 138 kV Porto Ferreira – Ribeirão Preto C1/C2, 82 km, permitindo a elevação da capacidade para 206/242 MV A e a substituição dos equipamentos terminais das SEs Ribeirão Preto e Porto Ferreira, autorizadas à CTEEP através da ReA ANEEL nº 12.491/2022, com prazo previsto para 22 de agosto de 2026 e prevista atualmente pela Transmisso ra para 30 de julho de 2027.</t>
-  </si>
-  <si>
-    <t>O atendimento aos valores de MUST solicitados neste ponto, no período de 2025 a 2028, nos horários de ponta e fora de ponta, fica condicionado à manutenção de fator de potência mínimo de 0,95 e à conclusão da obra abaixo relacionada: a) reconstrução/ recondutoramento da LT 138 kV Porto Ferreira – Ribeirão Preto C1/C2, 82 km, permitindo a elevação da capacidade para 206/242 MVA e a substituição dos equipamentos terminais das SEs Ribeirão Preto e Porto Ferreira, autorizadas à CTEEP atr avés da ReA ANEEL n º 12.491/2022, com prazo previsto para 22 de agosto de 2026 e prevista atualmente para 30 de julho de 2027.</t>
-  </si>
-  <si>
-    <t>O atendimento aos valores de MUST solicitados deve ficar condicionado à manutenção de fator de potência igual ou maior que 0, 95 e a entrada em operação da a obra de reconstrução/ recondutoramento da LT 138 kV Porto Ferreira – Ribeirão Preto C1/C2, 82  km, permitindo a elevação da capacidade para 206/242 MVA e a substituição dos equipamentos terminais das SEs Ribeirão Preto e Porto Ferreira, autorizadas à CTEEP através da ReA ANEEL nº 12.491/2022, com prazo previsto para 22 de a gosto de 2026 e prevista atualmente para 30 de julho de 2027.</t>
-  </si>
-  <si>
-    <t>O atendimento aos valores de MUST solicitados neste ponto, no período de 2025 a 2028, nos horários de ponta e fora de ponta, fica condicionado à manutenção de fator de potência mínimo de 0,95 e à conclusão das obras abaixo relacionadas: a) reconstrução/recondutoramento da LT 138 kV São José do Rio Pre to – Catanduva autorizada a CTEEP através da  REA Nª 12.639/2022, com prazo contratual previsto para jun/2025 e prevista atualmente pela Transmissora para novembro de 2026; b) a substituição de equipamentos terminais na extremidade da SE São José do Rio Preto, autorizada à CTEEP através do Despacho A NEEL nº 616/2023 com previsão de conclusão para março de 2026.</t>
   </si>
 </sst>
 </file>
@@ -782,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -810,16 +687,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -827,16 +704,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -844,16 +721,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -861,16 +738,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -878,16 +755,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -895,16 +772,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -912,16 +789,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -929,16 +806,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -946,16 +823,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -963,16 +840,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -980,16 +857,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -997,16 +874,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1014,16 +891,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1031,16 +908,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1048,16 +925,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1065,16 +942,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1082,16 +959,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1099,16 +976,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1116,16 +993,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1133,16 +1010,16 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1150,16 +1027,16 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1167,16 +1044,16 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1184,16 +1061,16 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1201,16 +1078,16 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1218,16 +1095,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1235,16 +1112,16 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1252,16 +1129,16 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1269,16 +1146,16 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1286,16 +1163,16 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1303,16 +1180,16 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1320,16 +1197,16 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1337,16 +1214,16 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1354,16 +1231,16 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1371,16 +1248,16 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1388,16 +1265,16 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1405,16 +1282,16 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1422,16 +1299,16 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1439,16 +1316,16 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1456,16 +1333,16 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1473,16 +1350,16 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1490,16 +1367,16 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1507,16 +1384,16 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1524,16 +1401,16 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1541,16 +1418,16 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1558,16 +1435,16 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1575,16 +1452,16 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1592,645 +1469,16 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" t="s">
-        <v>60</v>
-      </c>
-      <c r="E50" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" t="s">
-        <v>60</v>
-      </c>
-      <c r="E52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" t="s">
-        <v>60</v>
-      </c>
-      <c r="E54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" t="s">
-        <v>59</v>
-      </c>
-      <c r="E55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" t="s">
-        <v>64</v>
-      </c>
-      <c r="E56" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" t="s">
-        <v>61</v>
-      </c>
-      <c r="E57" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" t="s">
-        <v>60</v>
-      </c>
-      <c r="E58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" t="s">
-        <v>62</v>
-      </c>
-      <c r="E59" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" t="s">
-        <v>49</v>
-      </c>
-      <c r="C61" t="s">
-        <v>58</v>
-      </c>
-      <c r="D61" t="s">
-        <v>63</v>
-      </c>
-      <c r="E61" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" t="s">
-        <v>52</v>
-      </c>
-      <c r="D62" t="s">
-        <v>65</v>
-      </c>
-      <c r="E62" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" t="s">
-        <v>65</v>
-      </c>
-      <c r="E63" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" t="s">
-        <v>42</v>
-      </c>
-      <c r="C64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D64" t="s">
-        <v>59</v>
-      </c>
-      <c r="E64" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C65" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" t="s">
-        <v>52</v>
-      </c>
-      <c r="D66" t="s">
-        <v>60</v>
-      </c>
-      <c r="E66" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" t="s">
-        <v>52</v>
-      </c>
-      <c r="D67" t="s">
-        <v>61</v>
-      </c>
-      <c r="E67" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" t="s">
-        <v>52</v>
-      </c>
-      <c r="D68" t="s">
-        <v>60</v>
-      </c>
-      <c r="E68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" t="s">
-        <v>52</v>
-      </c>
-      <c r="D69" t="s">
-        <v>61</v>
-      </c>
-      <c r="E69" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" t="s">
-        <v>41</v>
-      </c>
-      <c r="C70" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" t="s">
-        <v>65</v>
-      </c>
-      <c r="E70" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>11</v>
-      </c>
-      <c r="B71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" t="s">
-        <v>58</v>
-      </c>
-      <c r="D71" t="s">
-        <v>60</v>
-      </c>
-      <c r="E71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>11</v>
-      </c>
-      <c r="B72" t="s">
-        <v>49</v>
-      </c>
-      <c r="C72" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72" t="s">
-        <v>59</v>
-      </c>
-      <c r="E72" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>11</v>
-      </c>
-      <c r="B73" t="s">
-        <v>49</v>
-      </c>
-      <c r="C73" t="s">
-        <v>58</v>
-      </c>
-      <c r="D73" t="s">
-        <v>62</v>
-      </c>
-      <c r="E73" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" t="s">
-        <v>42</v>
-      </c>
-      <c r="C74" t="s">
-        <v>52</v>
-      </c>
-      <c r="D74" t="s">
-        <v>63</v>
-      </c>
-      <c r="E74" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>11</v>
-      </c>
-      <c r="B75" t="s">
-        <v>42</v>
-      </c>
-      <c r="C75" t="s">
-        <v>52</v>
-      </c>
-      <c r="D75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E75" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" t="s">
-        <v>42</v>
-      </c>
-      <c r="C76" t="s">
-        <v>52</v>
-      </c>
-      <c r="D76" t="s">
-        <v>64</v>
-      </c>
-      <c r="E76" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>11</v>
-      </c>
-      <c r="B77" t="s">
-        <v>42</v>
-      </c>
-      <c r="C77" t="s">
-        <v>52</v>
-      </c>
-      <c r="D77" t="s">
-        <v>67</v>
-      </c>
-      <c r="E77" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" t="s">
-        <v>26</v>
-      </c>
-      <c r="C78" t="s">
-        <v>52</v>
-      </c>
-      <c r="D78" t="s">
-        <v>60</v>
-      </c>
-      <c r="E78" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" t="s">
-        <v>28</v>
-      </c>
-      <c r="C79" t="s">
-        <v>52</v>
-      </c>
-      <c r="D79" t="s">
-        <v>62</v>
-      </c>
-      <c r="E79" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>12</v>
-      </c>
-      <c r="B80" t="s">
-        <v>50</v>
-      </c>
-      <c r="C80" t="s">
-        <v>52</v>
-      </c>
-      <c r="D80" t="s">
-        <v>59</v>
-      </c>
-      <c r="E80" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" t="s">
-        <v>45</v>
-      </c>
-      <c r="C81" t="s">
-        <v>52</v>
-      </c>
-      <c r="D81" t="s">
-        <v>63</v>
-      </c>
-      <c r="E81" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" t="s">
-        <v>22</v>
-      </c>
-      <c r="C82" t="s">
-        <v>52</v>
-      </c>
-      <c r="D82" t="s">
-        <v>60</v>
-      </c>
-      <c r="E82" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" t="s">
-        <v>41</v>
-      </c>
-      <c r="C83" t="s">
-        <v>52</v>
-      </c>
-      <c r="D83" t="s">
-        <v>59</v>
-      </c>
-      <c r="E83" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C84" t="s">
-        <v>52</v>
-      </c>
-      <c r="D84" t="s">
-        <v>62</v>
-      </c>
-      <c r="E84" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>14</v>
-      </c>
-      <c r="B85" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85" t="s">
-        <v>52</v>
-      </c>
-      <c r="D85" t="s">
-        <v>60</v>
-      </c>
-      <c r="E85" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
